--- a/forecast_summary_B087GH5SK2.xlsx
+++ b/forecast_summary_B087GH5SK2.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,11 @@
           <t>Product Title</t>
         </is>
       </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -488,7 +493,7 @@
         <v>0.2361749066387115</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8300808946847822</v>
+        <v>0.8490862968235868</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -511,6 +516,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         <v>0.6229678219797907</v>
       </c>
       <c r="D3" t="n">
-        <v>1.474510252977599</v>
+        <v>1.441543848054443</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -547,6 +555,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -560,7 +571,7 @@
         <v>0.7254335200579619</v>
       </c>
       <c r="D4" t="n">
-        <v>2.026912500396007</v>
+        <v>1.940145530947636</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -583,6 +594,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -596,7 +610,7 @@
         <v>0.4505961945694293</v>
       </c>
       <c r="D5" t="n">
-        <v>1.613774947509744</v>
+        <v>1.581544481176608</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -619,6 +633,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +649,7 @@
         <v>0.08770680009234917</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7472375887366588</v>
+        <v>0.7766204316984882</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -655,6 +672,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -668,7 +688,7 @@
         <v>-0.02903144120343376</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5435861256645996</v>
+        <v>0.6059545196573823</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -691,6 +711,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -704,7 +727,7 @@
         <v>0.1180255920038033</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9338728732188689</v>
+        <v>0.886735246451708</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -727,6 +750,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -740,7 +766,7 @@
         <v>0.2709717446020748</v>
       </c>
       <c r="D9" t="n">
-        <v>1.544713144098121</v>
+        <v>1.620561082410338</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -763,6 +789,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -776,7 +805,7 @@
         <v>0.2388706035279167</v>
       </c>
       <c r="D10" t="n">
-        <v>1.515766004161925</v>
+        <v>1.550099337665229</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -799,6 +828,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K10" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -812,7 +844,7 @@
         <v>0.09283926246575322</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9051718838138213</v>
+        <v>0.8617424329699367</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -835,6 +867,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -848,7 +883,7 @@
         <v>0.01247448735116621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5558523798109309</v>
+        <v>0.666857409814312</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -871,6 +906,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -884,7 +922,7 @@
         <v>0.04205661579695674</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6724948919421365</v>
+        <v>0.6994638482173925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -907,6 +945,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -920,7 +961,7 @@
         <v>0.07670583843143659</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8184007192813688</v>
+        <v>0.9573788525732945</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -943,6 +984,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -956,7 +1000,7 @@
         <v>0.04239049277240866</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7011203469980111</v>
+        <v>0.7421207692352828</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -979,6 +1023,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +1039,7 @@
         <v>-0.01175490075430646</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5848760278137626</v>
+        <v>0.6146675311266451</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1015,6 +1062,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1028,7 +1078,7 @@
         <v>-0.01529951670392489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5382246373276918</v>
+        <v>0.6113323119265346</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1051,6 +1101,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1064,7 +1117,7 @@
         <v>0.01294488330526932</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5546956615034797</v>
+        <v>0.5733069545882064</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1087,6 +1140,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1100,7 +1156,7 @@
         <v>0.01196430646399476</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6467871312873753</v>
+        <v>0.6279762006671579</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1123,6 +1179,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1136,7 +1195,7 @@
         <v>-0.01422988847252488</v>
       </c>
       <c r="D20" t="n">
-        <v>0.608653651596574</v>
+        <v>0.5807981475104209</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1159,6 +1218,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1234,7 @@
         <v>-0.01189470752779356</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6054749579206848</v>
+        <v>0.6030302036687538</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1195,6 +1257,9 @@
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
